--- a/FermentationController/DB9 pinout.xlsx
+++ b/FermentationController/DB9 pinout.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\BeerSoft\FermentationController\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="6990"/>
   </bookViews>
@@ -12,12 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>brun</t>
   </si>
@@ -86,12 +90,18 @@
   </si>
   <si>
     <t>GPIO20</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>temp sensor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,6 +142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -180,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +226,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +483,7 @@
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -449,8 +496,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -478,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -492,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -506,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -520,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -534,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -548,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -561,8 +611,11 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>

--- a/FermentationController/DB9 pinout.xlsx
+++ b/FermentationController/DB9 pinout.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\BeerSoft\FermentationController\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="6990"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>brun</t>
   </si>
@@ -96,12 +91,30 @@
   </si>
   <si>
     <t>temp sensor</t>
+  </si>
+  <si>
+    <t>new design ESP32</t>
+  </si>
+  <si>
+    <t>GPIO22</t>
+  </si>
+  <si>
+    <t>GPIO23</t>
+  </si>
+  <si>
+    <t>GPIO18</t>
+  </si>
+  <si>
+    <t>GPIO19</t>
+  </si>
+  <si>
+    <t>GND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,26 +239,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,23 +274,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +462,7 @@
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -499,8 +478,11 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,8 +495,11 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,8 +512,11 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,8 +529,11 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -555,8 +546,11 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -569,8 +563,11 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -584,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -597,8 +594,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -614,8 +614,11 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -628,9 +631,13 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
